--- a/pcxzf/pcxzf/other/wangshun/部门工作.xlsx
+++ b/pcxzf/pcxzf/other/wangshun/部门工作.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,118 +424,122 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>平昌县开展第29个全国“爱眼日”宣传活动</t>
+          <t>直播进村，助农惠民</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县商务局</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>何英</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>平昌县双桥水库工程竣工移民安置终验工作顺利通过</t>
+          <t>爱在平昌  情系夕阳——平昌县爱心企业为我县养老机构捐赠爱心物资</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>平昌县民政局</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>王秋蓉</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>平昌县开设“惠企政策服务专窗”  打通服务企业“最后一公里”</t>
+          <t>县应急管理局：从细做好“迎峰度夏”节约用电</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>陈明霞</t>
+          <t>何玉</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>县人社局：着力实施“六双”工程聚力推动高质量发展</t>
+          <t>县民政局：全面开展民政领域社会救助对象年审复核工作</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>陈锦</t>
+          <t>符春雷</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>平昌县“税惠联动”助力退役军人走好创业就业路</t>
+          <t>县应急局：“三个一”推进“强安2024”监管执法专项行动</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平昌县退役军人事务局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>王涛</t>
+          <t>李国民</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>县交运局：公交线路延伸“一小步”，群众出行跨越“一大步”</t>
+          <t>县公路养护管理段：迎战高温抓养护 头顶烈日保畅通</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -545,261 +549,261 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>魏竹梅</t>
+          <t>李成志</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>县招商局：多级联动助企纾困</t>
+          <t>县志办：“三举措”完成《四川地方志 发展报告（2023）》平昌篇编纂资料报送工作</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平昌县招商局</t>
+          <t>平昌县地方志办公室</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>岳奇</t>
+          <t>胡美娟</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>县委党史办：用好红色资源，讲好红色故事</t>
+          <t>县志办：传达学习贯彻全县防止返贫致贫监测帮扶集中排查暨县委配合省委巡视工作会议精神</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平昌县党史办</t>
+          <t>平昌县地方志办公室</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>县委党史研究室</t>
+          <t>施智平</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>巴中市交通运输局、平昌县人民政府开展2024年防汛抢险暨地质灾害综合应急演练</t>
+          <t>平昌县举行庆祝第七个“中国医师节”系列活动</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>何家溢</t>
+          <t>张书浩</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>县水利局：以山坪塘整治为抓手 助推乡村振兴迈大步</t>
+          <t>县农业农村局：深化交流 协作共进—永康·平昌谱写农业合作新篇章</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>李宣</t>
+          <t>徐勇</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>平昌县举行第十一届中小学生艺术节文艺汇演</t>
+          <t>平昌应急深化安全生产治本攻坚 全面提升安全水平</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>王超</t>
+          <t>刘成东、郭正确</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局：开展儿童学生用品质量安全专项检查</t>
+          <t>县教育科技局三举措推动科技型中小企业培育</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>米珊珊</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>平昌县交通运输局：扎实推动“路政宣传月”活动走深走实</t>
+          <t>县委党史办到挂联点传达贯彻党的二十届三中全会精神</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县党史办</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>唐耀宗</t>
+          <t>县委党史研究室</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>干部“微课堂” 发挥“大效能”</t>
+          <t>县人社局“四字诀”推动产才融合厚培新质生产力</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>刘谦</t>
+          <t>何文波</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>县审计局：筑牢保密防线 守护家国之安</t>
+          <t>平昌县农业农村局以肉牛产业绘好乡村振兴“芯”图景</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平昌县审计局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>夏欣奕</t>
+          <t>刘庚儒、龙跃强</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>县教育科技局：组织开展学校“一校一策”县级评比</t>
+          <t>金宝司法所多措并举开展社区矫正工作</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>金宝司法所</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>王超  丁波</t>
+          <t>何勇</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>平昌白酒情醉泉州绽放魅力</t>
+          <t>平昌县志办四举措严禁党员干部举办升学宴</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平昌县商务局</t>
+          <t>平昌县地方志办公室</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>沈郑</t>
+          <t>胡美娟</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>县交运局：扎实推进道路货运企业“升规入统”</t>
+          <t>平昌县交通运输行业党委联合行业工会开展“夏送清凉”慰问活动</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -809,500 +813,499 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>魏川东</t>
+          <t>赵浩霖</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>县林业局：聚“椒”提质增效</t>
+          <t>县民政局：三“心”服务，为爱保驾护航</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平昌县林业局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>曾乐琼</t>
+          <t>王晓琴</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平昌县举行“校园防欺凌”专题法治宣讲活动</t>
+          <t>平昌县生态环境局：多部门联动，协力推进柴油货车污染治理攻坚</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
+          <t>巴中市平昌生态环境局</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>沈媛媛</t>
+          <t>周华琼</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>县统计局：狠抓关键环节为统计队伍“提神补钙”</t>
+          <t>江家口水库库周交通复建项目取得新进展</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
+          <t>平昌县水利局</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>刘华平</t>
+          <t>胥玉峰</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>县医保局：“加减乘除”做好医保政务服务</t>
+          <t>县公安局“三个强化”纵深推进夏季“夜经济”守护专项整治行动</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平昌县医疗保障局</t>
+          <t>平昌县公安局</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>办公室</t>
+          <t>平昌县公安局</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>县卫健局：“一号管三天”  医疗惠民举措再上新</t>
+          <t>弘扬文明新风，“典”亮幸福婚姻</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>县融媒体中心 张书浩</t>
+          <t>王晓琴</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>县司法局：“法律明白人”夯实法治基础</t>
+          <t>平昌县全力推进白衣镇千米防洪堤项目建设</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县地方志办公室</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>何俊</t>
+          <t>陈芳</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>县市场监督管理局：开展“知识产权服务万里行”进企业活动</t>
+          <t>县住建局：守牢安全底线，自建房排危、拆危见实效</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县住房和城乡建设局</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>姜力</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>平昌县开展“温暖童心 守护未来”爱心奶粉捐赠发放活动</t>
+          <t>县自规局：扎实做好信息公开工作</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>王琳</t>
+          <t>袁健</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>县供销社：以新质生产力助推茶产业全面振兴</t>
+          <t>县交运局：“三化同步”推动政务服务热线办理工作提质增效</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>平昌县供销合作社联合社</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>何秀平</t>
+          <t>程宇</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>平昌县举办“蜀结良缘·新风相伴”婚姻登记集体颁证仪式暨文明婚俗宣教活动</t>
+          <t>平昌县召开党史地方志工作联席会议</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
+          <t>平昌县地方志办公室</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>李金谕</t>
+          <t>李超</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>四川新闻联播｜下沉基层 医疗“组团式”帮扶见实效</t>
+          <t>我县创业项目在省级大赛斩获佳绩</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>川观新闻</t>
+          <t>袁海</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>县司法局：一二三四工作法推动城乡环境治理走深走实</t>
+          <t>平昌县积极开展2024年工作场所职业病危害因素监测工作</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>邢文军</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>平昌县双桥水库顺利完成大坝安全评价工作</t>
+          <t>绽放艺术风采 激发强国力量——平昌县参加四川省第十一届中小学生艺术展演活动暨全国第八届中小学生艺术展演活动</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>平昌县教育科技局</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>王超</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>县水利局：多措并举强宣传  节水意识入人心</t>
+          <t>平昌县交通运输局：坚持党建引领，建设民生交通</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>屈癸宏</t>
+          <t>唐依曼</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>县公安局：持续开展“四车”专项整治行动</t>
+          <t>县综合行政执法局：加强餐厨垃圾专项整治 守护群众“舌尖”安全</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>平昌县公安局</t>
+          <t>平昌县综合行政执法局</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>平昌县公安局</t>
+          <t>雷浩彬</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>“开办餐饮一件事”“开办运输企业一件事”在平昌县落地开花</t>
+          <t>平昌县应急管理局安全生产知识宣讲进乡镇</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>李吉林</t>
+          <t>焦伟</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>平昌县首个“开办运输企业一件事”办理成功</t>
+          <t>县教科局深入开展高新技术企业认定培育指导工作</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>李颖丽</t>
-        </is>
-      </c>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>县示范幼儿园举行“义卖cos秀、畅享好食光”校园义卖活动</t>
+          <t>平昌县“三个高效”把牢安全发展“方向盘”</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>平昌县示范幼儿园</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>王丽娟</t>
+          <t>孙逊</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>以爱之名 护佑健康 ‖ 平昌县卫生健康系统开展2024年5·12国际护士节系列
-活动</t>
+          <t>平昌县教科局党组学习贯彻党的二十届三中全会精神</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>朱兴国</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>县林业局：厚植绿水青山民生福祉 赋能新质生产力</t>
+          <t>讲川陕苏区革命斗争史 育担当复兴大任时代新人</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>平昌县林业局</t>
+          <t>平昌县党史办</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>曾乐琼</t>
+          <t>县委党史研究室</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>县粮储中心：全面完成社会粮油供需平衡调查</t>
+          <t>平昌县多举措推进企业安全生产标准化创建</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>平昌县粮食和物资储备中心</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>平昌县粮食和物资储备中心</t>
+          <t>杨旺、靳绍军、张心莲、苟书洲</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：开展“5·12防灾减灾日”宣传活动</t>
+          <t>县财政局：强化预算绩效管理 推动“过紧日子”落实落地</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>何明国</t>
+          <t>县财政局</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>县交运局“三聚焦”推动运输领域信访投诉办理提质增效</t>
+          <t>县交运局：积极开展灾毁恢复暨路域环境整治工作</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1312,501 +1315,2013 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>魏川东</t>
+          <t>李成志</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>平昌县高位推动卫生健康事业发展“出实招”</t>
+          <t>县自然资源和规划局：国债地灾避险搬迁项目正式启动竣工验收</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>吴上游</t>
+          <t>唐通鑫</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>县综合行政执法局：夯实防汛“安全堤” 打好备汛“主动战”</t>
+          <t>县司法局：办好干部“微讲堂” 提能学习“不打烊”</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>崔宝平</t>
+          <t>谢晓梅</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：持续发力 为房地产发展再添新作为</t>
+          <t>县委教育工委召开城区学校干部队伍建设座谈会</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>袁健</t>
-        </is>
-      </c>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>平昌县：做优基层政务服务  助推县域乡村振兴</t>
+          <t>县教科局开展企业科技需求大调研活动</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>李飞</t>
-        </is>
-      </c>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>传承瑰宝 弘扬国粹 ‖ 平昌县中医医院开展中医药文化进校园活动</t>
+          <t>县应急管理局：聚焦“安全+”切实抓好安全生产集中整治</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>曾卫平</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>平昌县供销社“五重”创市县双优</t>
+          <t>县司法局：“文房四宝”谱写高质量发展新篇章</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>平昌县供销合作社联合社</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>何秀平</t>
+          <t>谢瑜</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>县水利局：2024-2030年水土保持项目纳入项目库</t>
+          <t>县市场监督管理局：开展“三大行动”提升食品小作坊治理水平</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>何鹏</t>
+          <t>余猛</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>县水利局：“五个责任人”携手护航水库安全</t>
+          <t>县土地储备整理中心：打好“三张牌”持续推动营商环境优化提升</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>李怀明</t>
+          <t>黄海艳</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>平昌县：“以节聚势”掀起五一促销新浪潮</t>
+          <t>县市场监督管理局：“六查六看”护航校园食品安全</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>平昌县商务局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>唐立</t>
+          <t>周海</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>县统计局“四强化”积极推进“四上”调查单位月度入统工作</t>
+          <t>县行政审批和数据局：“高效办成一件事”让企业群众少跑路</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
+          <t>平昌县行政审批和数据局</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>刘华平</t>
+          <t>李吉林</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>县住建局：环境整治“动”起来 城市颜值“提”上来</t>
+          <t>平昌县在全市预防接种技能竞赛活动中取得佳绩</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>平昌县住房和城乡建设局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>苏灿</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>县委党史办严把“五关”  扎实开展《执政实录（2023）》编纂工作</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>数量</t>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平昌县党史办</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>县委党史研究室</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>6</v>
+          <t>县公安局 “三个导向”筑牢“九小场所”夏季消防安全防线</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>6</v>
+          <t>平昌县“三举措”加快发展优质特色水果产业</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平昌县农业农村局</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>赵倩、徐勇</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4</v>
+          <t>县水利局：三举措全面开展水土保持工作</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>何鹏</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
+          <t>县司法局：持续优化法治化营商环境 安商护企跑出“加速度”</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平昌县司法局</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>邢文军</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>平昌县退役军人事务局</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
+          <t>县志办：认真开展巩固拓展脱贫攻坚摸排帮扶工作</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平昌县地方志办公室</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>胡美娟</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>6</v>
+          <t>平昌县开展中国·国家地名信息库质量专项复核工作</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平昌县民政局</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>周红</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>平昌县招商局</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
+          <t>平昌县开展2024年预防接种技能竞赛活动</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平昌县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>李佳佳</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>平昌县党史办</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
+          <t>提专业水平 强财务管理</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
-      </c>
+          <t>县教科局召开专题会议学习贯彻市教育局“阳光问教”暨2024年半年工作推进会精神</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
+          <t>赋能“心”成长   呵护“心”健康</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>平昌县审计局</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
+          <t>武术特色创示范  合作办学促发展</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>平昌县商务局</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
+          <t>平昌县举办幼儿骨干教师培训班</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>平昌县林业局</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
+          <t>县志办加快推进地方志事业高质量发展</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平昌县地方志办公室</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>陈芳</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>3</v>
+          <t>做高考真题 练教师真功</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>蒋佳玲</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2</v>
+          <t>与名校结对，促高质发展</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>李尚宗</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>平昌县医疗保障局</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
+          <t>闻令而动 实战检验防汛抢险救援队伍紧急出动能力</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局  王臣相</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2</v>
+          <t>县住建局：多举措推进收购已建成存量商品房用作保障性住房工作</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平昌县住房和城乡建设局</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>刘荣权</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>平昌县供销合作社联合社</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2</v>
+          <t>县教科局：平昌县2024年暑假教师集中培训正式启动</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平昌县教育科技局</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>平昌县教育科技局</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>平昌县公安局</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
+          <t>水利局：我县严防死守迎战第一轮强降雨</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>李怀明</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>平昌县示范幼儿园</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
+          <t>县就业局：进企纾困解难题 就业服务零距离</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>饶鑫</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>平昌县粮食和物资储备中心</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
+          <t>平昌县奏响“三部曲”扎实做好安全生产清单制信息化管理工作</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
+          <t>平昌县突出“五抓”全力推进安全生产治本攻坚三年行动</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
+          <t>县司法局：扎实开展“庆七一·学党纪·树新风”主题系列活动</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平昌县司法局</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>李娇</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>县教科局：防溺水教育，护航安全假期</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平昌县教育科技局</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>陈亚玲</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>平昌入选全省研学旅游典型案例六个之一</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平昌县文化广播电视体育和旅游局</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>杜小乔</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>县林业局：多措并举贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平昌县林业局</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>唐祖育</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>县水利局：激发青年干部青春活力 凝聚干事创业强大合力</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>水利局办公室</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>县水利局“三举措”确保二季度移民直补资金发放到位</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>刘力力</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>平昌县财政局举办“庆七一·党建引领财政高质量发展”主题演讲比赛</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>办公室</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1-6月县级领导信箱办理情况</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平昌县信访局</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>詹蓉芳</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>平昌县委党史研究室：全面贯彻落实全会精神  助力党史研究高质量发展</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平昌县党史办</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>县委党史研究室</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>平昌县志办到通江县开展党纪学习教育主题党日活动</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平昌县地方志办公室</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>胡美娟</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>县司法局：传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平昌县司法局</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>王亚玲</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>巴中市平昌县委党史研究室扎实做好红色基因传承工作</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平昌县党史办</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>县委党史研究室</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>县水利局：稳步推进项目建设</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>董烨</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>县医保局：传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>办公室</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>县行政审批和数据局：传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平昌县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>姜玉琼</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>平昌县委党史研究室抓好《党史学习教育工作条例》贯彻落实</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平昌县党史办</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>县委党史研究室</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>县退役军人事务局传达贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平昌县退役军人事务局</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>杨玉霞</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>县志办：传达学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平昌县地方志办公室</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>冉雪</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>县住建局：多措并举抓宣贯 勤学善思促提升</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>平昌县住房和城乡建设局</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>李川</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>县机关事务服务中心：强保障优服务，推动县委全会精神见行见效</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平昌县机关事务服务中心</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>县机关事务服务中心</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>泓源常青公用事业集团传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>四川泓源常青公用事业集团有限公司</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>杨忠</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>县财政局：专题传达学习中共平昌县委十四届九次全体会议精神</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>吴匀丁</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>县民政局：召开传达学习县委十四届九次全会精神专题会议</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平昌县民政局</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>符春雷</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>中共平昌县国有资产管理局委员会学习贯彻省委十二届五次全会、市委五届八次全会和县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平昌县国有资产管理局</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>胥中尉</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>《平昌年鉴（2024）》初稿编纂完成</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平昌县地方志办公室</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>刘霞</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>县粮储中心：以“三步棋”，推动县委全会精神落地见效</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平昌县粮食和物资储备中心</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>平昌县粮食和物资储备中心</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>县信访局专题传达学习县委十四届九次 全会精神</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平昌县信访局</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>胡诚茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>团县委专题传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平昌团县委</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>张军</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局：深入传达学习县委第十四届第九次全会精神</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平昌县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>袁健</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>县应急管理局：传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>县交运局学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>唐依曼</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>泓源常青集团加强警示教育</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泓源常青集团</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>温恒刚</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>县目标绩效评估中心：严考评强督查跟促县委全会精神落地见效</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平昌县绩效评估中心</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>综合股</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>县统计局专题传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平昌县统计局</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>刘华平</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>平昌县扎实开展2024年防范非法集资集中宣传日活动</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>张清</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>平昌县组织开展2024年世界献血者日宣传活动</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平昌县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>平昌县卫生健康局</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局：执法亮剑护耕地</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平昌县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>袁健</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>平昌县开展2024年安全生产宣传咨询日暨安全宣传“五进”活动</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>县行政审批和数据局：“三举措”积极做好四川省一体化政务服务平台4.0系统上线工作</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平昌县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>李飞</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>平昌积极推进农村妇女免费“两癌”筛查</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平昌县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>刘青城</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>县财政局：多措并举推动农业保险高质量发展</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>县财政局</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>县信访局：召开平昌县信访工作法治化业务培训会</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平昌县信访局</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>胡诚茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>平昌县商务局</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>平昌县民政局</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>平昌县地方志办公室</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>平昌县卫生健康局</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>平昌县农业农村局</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>平昌县教育科技局</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>平昌县党史办</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>金宝司法所</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>巴中市平昌生态环境局</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>平昌县住房和城乡建设局</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>平昌县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>平昌县综合行政执法局</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>平昌县司法局</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>平昌县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>平昌县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>平昌县文化广播电视体育和旅游局</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>平昌县林业局</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>平昌县信访局</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>平昌县退役军人事务局</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>平昌县机关事务服务中心</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>四川泓源常青公用事业集团有限公司</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>平昌县国有资产管理局</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>平昌县粮食和物资储备中心</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>平昌团县委</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>泓源常青集团</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>平昌县绩效评估中心</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>平昌县统计局</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
         <v>1</v>
       </c>
     </row>
